--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -789,14 +789,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1079,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2172,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4514,584 +4514,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="42">
-        <v>137</v>
-      </c>
-      <c r="B138" s="42">
-        <v>5</v>
-      </c>
-      <c r="C138" s="42">
-        <v>25200</v>
-      </c>
-      <c r="D138" s="42">
-        <v>25800</v>
-      </c>
-      <c r="E138" s="42">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>5</v>
-      </c>
-      <c r="C139">
-        <v>27000</v>
-      </c>
-      <c r="D139">
-        <v>27600</v>
-      </c>
-      <c r="E139">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>5</v>
-      </c>
-      <c r="C140">
-        <v>28800</v>
-      </c>
-      <c r="D140">
-        <v>29400</v>
-      </c>
-      <c r="E140">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>5</v>
-      </c>
-      <c r="C141">
-        <v>30600</v>
-      </c>
-      <c r="D141">
-        <v>31200</v>
-      </c>
-      <c r="E141">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>5</v>
-      </c>
-      <c r="C142">
-        <v>32400</v>
-      </c>
-      <c r="D142">
-        <v>33000</v>
-      </c>
-      <c r="E142">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>5</v>
-      </c>
-      <c r="C143">
-        <v>34200</v>
-      </c>
-      <c r="D143">
-        <v>34800</v>
-      </c>
-      <c r="E143">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>5</v>
-      </c>
-      <c r="C144">
-        <v>36000</v>
-      </c>
-      <c r="D144">
-        <v>36600</v>
-      </c>
-      <c r="E144">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>5</v>
-      </c>
-      <c r="C145">
-        <v>37800</v>
-      </c>
-      <c r="D145">
-        <v>38400</v>
-      </c>
-      <c r="E145">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>5</v>
-      </c>
-      <c r="C146">
-        <v>39600</v>
-      </c>
-      <c r="D146">
-        <v>40200</v>
-      </c>
-      <c r="E146">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>5</v>
-      </c>
-      <c r="C147">
-        <v>41400</v>
-      </c>
-      <c r="D147">
-        <v>42000</v>
-      </c>
-      <c r="E147">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>5</v>
-      </c>
-      <c r="C148">
-        <v>43200</v>
-      </c>
-      <c r="D148">
-        <v>43800</v>
-      </c>
-      <c r="E148">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>5</v>
-      </c>
-      <c r="C149">
-        <v>45000</v>
-      </c>
-      <c r="D149">
-        <v>45600</v>
-      </c>
-      <c r="E149">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <v>5</v>
-      </c>
-      <c r="C150">
-        <v>46800</v>
-      </c>
-      <c r="D150">
-        <v>47400</v>
-      </c>
-      <c r="E150">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>5</v>
-      </c>
-      <c r="C151">
-        <v>48600</v>
-      </c>
-      <c r="D151">
-        <v>49200</v>
-      </c>
-      <c r="E151">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <v>5</v>
-      </c>
-      <c r="C152">
-        <v>50400</v>
-      </c>
-      <c r="D152">
-        <v>51000</v>
-      </c>
-      <c r="E152">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <v>5</v>
-      </c>
-      <c r="C153">
-        <v>52200</v>
-      </c>
-      <c r="D153">
-        <v>52800</v>
-      </c>
-      <c r="E153">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>5</v>
-      </c>
-      <c r="C154">
-        <v>54000</v>
-      </c>
-      <c r="D154">
-        <v>54600</v>
-      </c>
-      <c r="E154">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>5</v>
-      </c>
-      <c r="C155">
-        <v>55800</v>
-      </c>
-      <c r="D155">
-        <v>56400</v>
-      </c>
-      <c r="E155">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>5</v>
-      </c>
-      <c r="C156">
-        <v>57600</v>
-      </c>
-      <c r="D156">
-        <v>58200</v>
-      </c>
-      <c r="E156">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>5</v>
-      </c>
-      <c r="C157">
-        <v>59400</v>
-      </c>
-      <c r="D157">
-        <v>60000</v>
-      </c>
-      <c r="E157">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158">
-        <v>5</v>
-      </c>
-      <c r="C158">
-        <v>61200</v>
-      </c>
-      <c r="D158">
-        <v>61800</v>
-      </c>
-      <c r="E158">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159">
-        <v>5</v>
-      </c>
-      <c r="C159">
-        <v>63000</v>
-      </c>
-      <c r="D159">
-        <v>63600</v>
-      </c>
-      <c r="E159">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <v>5</v>
-      </c>
-      <c r="C160">
-        <v>64800</v>
-      </c>
-      <c r="D160">
-        <v>65400</v>
-      </c>
-      <c r="E160">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>5</v>
-      </c>
-      <c r="C161">
-        <v>66600</v>
-      </c>
-      <c r="D161">
-        <v>67200</v>
-      </c>
-      <c r="E161">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <v>5</v>
-      </c>
-      <c r="C162">
-        <v>68400</v>
-      </c>
-      <c r="D162">
-        <v>69000</v>
-      </c>
-      <c r="E162">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>5</v>
-      </c>
-      <c r="C163">
-        <v>70200</v>
-      </c>
-      <c r="D163">
-        <v>70800</v>
-      </c>
-      <c r="E163">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <v>5</v>
-      </c>
-      <c r="C164">
-        <v>72000</v>
-      </c>
-      <c r="D164">
-        <v>72600</v>
-      </c>
-      <c r="E164">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <v>5</v>
-      </c>
-      <c r="C165">
-        <v>73800</v>
-      </c>
-      <c r="D165">
-        <v>74400</v>
-      </c>
-      <c r="E165">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <v>5</v>
-      </c>
-      <c r="C166">
-        <v>75600</v>
-      </c>
-      <c r="D166">
-        <v>76200</v>
-      </c>
-      <c r="E166">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167">
-        <v>5</v>
-      </c>
-      <c r="C167">
-        <v>77400</v>
-      </c>
-      <c r="D167">
-        <v>78000</v>
-      </c>
-      <c r="E167">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <v>5</v>
-      </c>
-      <c r="C168">
-        <v>79200</v>
-      </c>
-      <c r="D168">
-        <v>79800</v>
-      </c>
-      <c r="E168">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <v>5</v>
-      </c>
-      <c r="C169">
-        <v>81000</v>
-      </c>
-      <c r="D169">
-        <v>81600</v>
-      </c>
-      <c r="E169">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <v>5</v>
-      </c>
-      <c r="C170">
-        <v>82800</v>
-      </c>
-      <c r="D170">
-        <v>83400</v>
-      </c>
-      <c r="E170">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>5</v>
-      </c>
-      <c r="C171">
-        <v>84600</v>
-      </c>
-      <c r="D171">
-        <v>85200</v>
-      </c>
-      <c r="E171">
-        <v>600</v>
-      </c>
-    </row>
+    <row r="138" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5697,7 +5120,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -5884,7 +5307,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -5893,13 +5316,13 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
         <v>1050</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>4</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>1000</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -6508,7 +5931,7 @@
       <c r="C14" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <v>1</v>
       </c>
       <c r="E14" s="30">

--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="118">
   <si>
     <t>id|</t>
   </si>
@@ -477,8 +477,45 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1,1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,9999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_vip4_match</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -668,7 +705,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1079,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1285,9 +1325,7 @@
       <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10">
         <v>13</v>
       </c>
@@ -1300,12 +1338,8 @@
       <c r="I6" s="40">
         <v>1</v>
       </c>
-      <c r="J6" s="41">
-        <v>5</v>
-      </c>
-      <c r="K6" s="31">
-        <v>5</v>
-      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -1450,7 +1484,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D18" sqref="D18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1697,39 +1731,116 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>51100</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
@@ -1769,6 +1880,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1777,7 +1889,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G20:G21"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2047,30 +2159,62 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50000</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20000</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10000</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5000</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="J21" s="36"/>
       <c r="K21" s="37"/>
@@ -2080,10 +2224,18 @@
       <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3000</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -2093,6 +2245,18 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2000</v>
+      </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
       <c r="L23" s="39"/>
@@ -2101,6 +2265,18 @@
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1000</v>
+      </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="39"/>
@@ -2109,6 +2285,18 @@
       <c r="O24" s="39"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="6">
+        <v>500</v>
+      </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
@@ -2174,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4524,10 +4712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4665,34 +4853,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31">
-        <v>5</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31">
-        <v>5</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4704,7 +4864,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D16"/>
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4933,50 +5093,17 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31">
-        <v>5</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="31">
-        <v>10</v>
-      </c>
+      <c r="C14" s="35"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31">
-        <v>5</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="31">
-        <v>30</v>
-      </c>
+      <c r="C15" s="35"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31">
-        <v>5</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="31">
-        <v>60</v>
-      </c>
+      <c r="C16" s="35"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
@@ -5346,7 +5473,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5605,6 +5732,9 @@
       <c r="D14" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="E14" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
@@ -5621,6 +5751,9 @@
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
     </row>
@@ -5636,6 +5769,9 @@
       </c>
       <c r="D16" s="9" t="s">
         <v>93</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
@@ -5652,7 +5788,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5928,8 +6064,8 @@
       <c r="B14" s="30">
         <v>13</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>107</v>
+      <c r="C14" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="43">
         <v>1</v>
@@ -5973,7 +6109,7 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6178,6 +6314,48 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10000</v>
+      </c>
+    </row>
     <row r="27" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>

--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
   <si>
     <t>id|</t>
   </si>
@@ -516,6 +516,10 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>13,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1119,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1325,9 +1329,11 @@
       <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>13</v>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -1338,8 +1344,12 @@
       <c r="I6" s="40">
         <v>1</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="41">
+        <v>4</v>
+      </c>
+      <c r="K6" s="31">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -2363,7 +2373,7 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
   <si>
     <t>id|</t>
   </si>
@@ -519,6 +519,10 @@
   </si>
   <si>
     <t>13,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,99999999999</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1498,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D25"/>
+      <selection activeCell="C18" sqref="C18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1899,7 +1903,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5482,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5740,49 +5744,27 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>117</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>

--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5308,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5458,7 +5458,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="42">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="E6" s="42">
         <v>4</v>
@@ -5486,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -5309,7 +5309,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5458,7 +5458,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="42">
         <v>4</v>

--- a/config_11.9/bullet_rank_match_server.xlsx
+++ b/config_11.9/bullet_rank_match_server.xlsx
@@ -5309,7 +5309,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5458,7 +5458,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="42">
         <v>4</v>
